--- a/Excel/镇魂街/draw.抽卡.xlsx
+++ b/Excel/镇魂街/draw.抽卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>sheet名</t>
   </si>
@@ -159,9 +159,6 @@
     <t>RandomCount</t>
   </si>
   <si>
-    <t>CostGroup</t>
-  </si>
-  <si>
     <t>DropGroup</t>
   </si>
   <si>
@@ -171,17 +168,10 @@
     <t>抽取次数</t>
   </si>
   <si>
-    <t>消耗组ID</t>
-  </si>
-  <si>
     <t>掉落组ID</t>
   </si>
   <si>
     <t>drop_id:&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -269,16 +259,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>card_random_type.lua</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>card_random_pool.lua</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[1].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[1].Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽卡</t>
   </si>
 </sst>
 </file>
@@ -790,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -833,17 +846,17 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3" t="b">
@@ -853,14 +866,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -871,18 +884,16 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -891,14 +902,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -921,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1066,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1077,10 +1088,10 @@
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
+    <col min="5" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1094,54 +1105,59 @@
         <v>40</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1149,19 +1165,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
-        <v>1003</v>
+      <c r="E4" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="F4" s="3">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1169,19 +1188,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="E5" s="3">
-        <v>1005</v>
+      <c r="E5" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="F5" s="3">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1189,19 +1211,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
-        <v>1004</v>
+      <c r="E6" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="F6" s="3">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1209,16 +1234,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
-        <v>1006</v>
+      <c r="E7" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="F7" s="3">
-        <v>1046</v>
+        <v>2000</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/draw.抽卡.xlsx
+++ b/Excel/镇魂街/draw.抽卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>sheet名</t>
   </si>
@@ -279,10 +279,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>钻石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>守护灵抽卡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -292,6 +288,22 @@
   </si>
   <si>
     <t>寄灵人抽卡</t>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -932,7 +944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1079,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1171,13 +1183,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F4" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1194,13 +1206,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1217,13 +1229,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="F6" s="3">
-        <v>200</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1240,17 +1252,18 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F7" s="3">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/draw.抽卡.xlsx
+++ b/Excel/镇魂街/draw.抽卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t>sheet名</t>
   </si>
@@ -166,13 +166,6 @@
   </si>
   <si>
     <t>抽取次数</t>
-  </si>
-  <si>
-    <t>掉落组ID</t>
-  </si>
-  <si>
-    <t>drop_id:&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;</t>
@@ -279,17 +272,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>守护灵抽卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人抽卡</t>
-  </si>
-  <si>
     <t>寄灵人抽卡券</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -303,6 +285,34 @@
   </si>
   <si>
     <t>守护灵抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂掉落组ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResBarId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源栏ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResBarId1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡展示资源栏ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -858,17 +868,17 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3" t="b">
@@ -878,14 +888,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -896,14 +906,14 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
@@ -914,14 +924,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -942,10 +952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -957,9 +967,11 @@
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -984,8 +996,14 @@
       <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1010,8 +1028,14 @@
       <c r="H2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1036,8 +1060,14 @@
       <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1058,8 +1088,14 @@
         <v>35</v>
       </c>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I4" s="3">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1080,6 +1116,12 @@
         <v>38</v>
       </c>
       <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1089,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1103,7 +1145,7 @@
     <col min="5" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1117,40 +1159,39 @@
         <v>40</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1166,10 +1207,10 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1177,22 +1218,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1200,22 +1241,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F5" s="3">
         <v>10</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1223,22 +1264,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1246,19 +1287,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F7" s="3">
         <v>10</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>68</v>
+      <c r="G7" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/draw.抽卡.xlsx
+++ b/Excel/镇魂街/draw.抽卡.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="随机类型" sheetId="26" r:id="rId2"/>
     <sheet name="随机池" sheetId="27" r:id="rId3"/>
+    <sheet name="卡池" sheetId="28" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="186">
   <si>
     <t>sheet名</t>
   </si>
@@ -159,9 +160,6 @@
     <t>RandomCount</t>
   </si>
   <si>
-    <t>DropGroup</t>
-  </si>
-  <si>
     <t>卡池类型</t>
   </si>
   <si>
@@ -183,13 +181,7 @@
     <t>寄灵人单抽</t>
   </si>
   <si>
-    <t>寄灵人十连</t>
-  </si>
-  <si>
     <t>守护灵单抽</t>
-  </si>
-  <si>
-    <t>守护灵十连</t>
   </si>
   <si>
     <t>随机类型</t>
@@ -276,26 +268,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>寄灵人抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>守护灵抽卡券</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>守护灵抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>复杂掉落组ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ResBarId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -313,6 +289,481 @@
   </si>
   <si>
     <t>抽卡展示资源栏ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpCol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵-限定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2019-06-28 00:00:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-07-15 00:00:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_id:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardPool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+  </si>
+  <si>
+    <t>曹玄亮</t>
+  </si>
+  <si>
+    <t>战斗夏铃</t>
+  </si>
+  <si>
+    <t>项昆仑</t>
+  </si>
+  <si>
+    <t>刘羽禅</t>
+  </si>
+  <si>
+    <t>红莲缇娜</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵</t>
+  </si>
+  <si>
+    <t>黑尔坎普</t>
+  </si>
+  <si>
+    <t>北落师门</t>
+  </si>
+  <si>
+    <t>盖文</t>
+  </si>
+  <si>
+    <t>阎风吒</t>
+  </si>
+  <si>
+    <t>南御夫</t>
+  </si>
+  <si>
+    <t>吉拉</t>
+  </si>
+  <si>
+    <t>吕仙宫</t>
+  </si>
+  <si>
+    <t>阎巧巧</t>
+  </si>
+  <si>
+    <t>常服夏铃</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>唐流雨</t>
+  </si>
+  <si>
+    <t>李轩辕</t>
+  </si>
+  <si>
+    <t>项羽</t>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>张郃</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+  </si>
+  <si>
+    <t>石灵明</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>西方龙</t>
+  </si>
+  <si>
+    <t>飞廉</t>
+  </si>
+  <si>
+    <t>噬日</t>
+  </si>
+  <si>
+    <t>食火蜥</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
+  </si>
+  <si>
+    <t>柠檬精</t>
+  </si>
+  <si>
+    <t>IsUp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡池</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleKey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,HelpCol,Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,HelpCol,Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡消耗1Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡消耗1数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CycleBox[1].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CycleBox[2].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[1].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[1].times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[2].times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[3].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[3].times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通掉落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环抽Id1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环抽间隔1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环抽Id2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环抽间隔2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落Id1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落次数1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落Id2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落次数2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落Id3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落次数3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id:&lt;&gt;|@0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id:e&lt;&gt;|@0</t>
+  </si>
+  <si>
+    <t>drop_id:e&lt;&gt;|@0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;|0</t>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CycleBox[1].inteval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CycleBox[1].phase</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环抽间隔相位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CycleBox[2].phase</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环抽相位2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenTimes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放Id，-1表示没有开启条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;|20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵1抽保底</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵2抽保底</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵3抽保底</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>守护灵2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抽保底</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落Id4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落次数4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落Id5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落次数5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[4].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[4].times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[5].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[5].times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>守护灵10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抽保底</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[2].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CycleBox[2].inteval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalDrop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵10连保底</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵30连保底</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人十连</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵十连</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定抽卡次数为times
+先看FirstBox，如果抽卡次数和其中的times相等，则走他的掉落。
+再看CycleBox，倒着遍历，如果times-phase&gt;0 并且 MOD(times-phase,inteval)==0，则走他的掉落
+如果没有保底掉落，则走NormalDrop</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +965,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -530,6 +981,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -823,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -838,9 +1292,10 @@
     <col min="5" max="5" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="79.625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -865,83 +1320,117 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -952,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G17"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -966,12 +1455,29 @@
     <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="8" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="17.625" customWidth="1"/>
+    <col min="15" max="15" width="23.5" customWidth="1"/>
+    <col min="16" max="16" width="19.75" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
+    <col min="18" max="18" width="20.5" customWidth="1"/>
+    <col min="19" max="19" width="21" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="18.625" customWidth="1"/>
+    <col min="22" max="22" width="18.125" customWidth="1"/>
+    <col min="23" max="23" width="19.75" customWidth="1"/>
+    <col min="24" max="24" width="20.125" customWidth="1"/>
+    <col min="25" max="25" width="18.5" customWidth="1"/>
+    <col min="26" max="26" width="15.125" customWidth="1"/>
+    <col min="27" max="27" width="18.25" customWidth="1"/>
+    <col min="28" max="28" width="15.625" customWidth="1"/>
+    <col min="29" max="29" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -997,13 +1503,70 @@
         <v>15</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1029,13 +1592,70 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T2" t="s">
+        <v>150</v>
+      </c>
+      <c r="U2" t="s">
+        <v>152</v>
+      </c>
+      <c r="V2" t="s">
+        <v>150</v>
+      </c>
+      <c r="W2" t="s">
+        <v>152</v>
+      </c>
+      <c r="X2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1061,13 +1681,70 @@
         <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="33" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1089,13 +1766,38 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
         <v>16</v>
       </c>
-      <c r="J4" s="3">
+      <c r="L4" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+    </row>
+    <row r="5" spans="1:29" ht="33" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1117,10 +1819,152 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <v>17</v>
       </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3">
         <v>17</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="O5" s="3">
+        <v>10</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R5" s="3">
+        <v>30</v>
+      </c>
+      <c r="S5" s="3">
+        <v>20</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="W5" s="3">
+        <v>2</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3">
+        <v>17</v>
+      </c>
+      <c r="L6" s="3">
+        <v>17</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" s="3">
+        <v>10</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R6" s="3">
+        <v>30</v>
+      </c>
+      <c r="S6" s="3">
+        <v>20</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="W6" s="3">
+        <v>2</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1131,21 +1975,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="7" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="21.75" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="12" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="18.75" customWidth="1"/>
+    <col min="16" max="16" width="15.125" customWidth="1"/>
+    <col min="17" max="17" width="18.75" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="21" width="18.75" customWidth="1"/>
+    <col min="22" max="22" width="16.25" customWidth="1"/>
+    <col min="23" max="23" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1159,58 +2018,53 @@
         <v>40</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1218,45 +2072,39 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>48</v>
+      <c r="C5" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F5" s="3">
         <v>10</v>
       </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1264,42 +2112,941 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>50</v>
+      <c r="C7" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F7" s="3">
         <v>10</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="3">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="3">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="3">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="3">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="3">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="3">
+        <v>12</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>2</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="3">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="3">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="3">
+        <v>15</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="3">
+        <v>16</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="3">
+        <v>17</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="3">
+        <v>18</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="3">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="3">
+        <v>20</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="3">
+        <v>21</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>3</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="3">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="3">
+        <v>6</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>3</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="3">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>3</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="3">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>3</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="3">
+        <v>9</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="3">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>3</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="3">
+        <v>11</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="3">
+        <v>12</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>3</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="3">
+        <v>13</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>3</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="3">
+        <v>14</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>3</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="3">
+        <v>15</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="3">
+        <v>16</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>3</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="3">
+        <v>17</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>3</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="3">
+        <v>18</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>3</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="3">
+        <v>19</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>3</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="3">
+        <v>20</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>3</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="3">
+        <v>21</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>3</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/draw.抽卡.xlsx
+++ b/Excel/镇魂街/draw.抽卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="221">
   <si>
     <t>sheet名</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>ui_dtex_Gacha_001</t>
-  </si>
-  <si>
-    <t>守护灵</t>
   </si>
   <si>
     <t>ui_t_Gacha_002</t>
@@ -580,24 +577,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>drop_id:&lt;&gt;|@0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop_id:e&lt;&gt;|@0</t>
-  </si>
-  <si>
-    <t>drop_id:e&lt;&gt;|@0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;|0</t>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>守护灵抽卡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -630,31 +609,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>OpenTimes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>开放Id，-1表示没有开启条件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>开放次数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;|20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>守护灵1抽保底</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>守护灵2抽保底</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵3抽保底</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -684,10 +647,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>首次掉落Id4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>首次掉落次数4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -696,19 +655,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>首次掉落次数5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FirstBox[4].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirstBox[4].times</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirstBox[5].id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -764,6 +711,201 @@
 先看FirstBox，如果抽卡次数和其中的times相等，则走他的掉落。
 再看CycleBox，倒着遍历，如果times-phase&gt;0 并且 MOD(times-phase,inteval)==0，则走他的掉落
 如果没有保底掉落，则走NormalDrop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时守护灵单抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时守护灵十连</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启前置卡池</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenParams[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenParams[2]</t>
+  </si>
+  <si>
+    <t>开启参数1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启参数2</t>
+  </si>
+  <si>
+    <t>玩家等级-lv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-pool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_id:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[4].times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落Id4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[5].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落次数5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[6].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落Id6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[6].times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落次数6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[7].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落Id7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[7].times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次掉落次数7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵5抽保底</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[8].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[8].times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[9].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstBox[9].times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵50抽保底</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵80抽保底</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 寄灵人
+2 守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵低抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵低抽10连保底</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎守护灵单抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎守护灵十连</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵初级抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵初级抽卡券</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1279,7 +1421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1321,22 +1463,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3" t="b">
@@ -1349,20 +1491,20 @@
     </row>
     <row r="3" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1374,14 +1516,14 @@
     </row>
     <row r="4" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1393,14 +1535,14 @@
     </row>
     <row r="5" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
@@ -1412,14 +1554,14 @@
     </row>
     <row r="6" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1441,43 +1583,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="15.75" customWidth="1"/>
-    <col min="14" max="14" width="17.625" customWidth="1"/>
-    <col min="15" max="15" width="23.5" customWidth="1"/>
-    <col min="16" max="16" width="19.75" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
-    <col min="18" max="18" width="20.5" customWidth="1"/>
-    <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="21" max="21" width="18.625" customWidth="1"/>
-    <col min="22" max="22" width="18.125" customWidth="1"/>
-    <col min="23" max="23" width="19.75" customWidth="1"/>
-    <col min="24" max="24" width="20.125" customWidth="1"/>
-    <col min="25" max="25" width="18.5" customWidth="1"/>
-    <col min="26" max="26" width="15.125" customWidth="1"/>
-    <col min="27" max="27" width="18.25" customWidth="1"/>
-    <col min="28" max="28" width="15.625" customWidth="1"/>
-    <col min="29" max="29" width="19.75" customWidth="1"/>
+    <col min="2" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="16.25" customWidth="1"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="15.75" customWidth="1"/>
+    <col min="17" max="17" width="17.625" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
+    <col min="19" max="19" width="19.75" customWidth="1"/>
+    <col min="20" max="20" width="18.5" customWidth="1"/>
+    <col min="21" max="21" width="20.5" customWidth="1"/>
+    <col min="22" max="22" width="21" customWidth="1"/>
+    <col min="23" max="23" width="17" customWidth="1"/>
+    <col min="24" max="24" width="18.625" customWidth="1"/>
+    <col min="25" max="25" width="18.125" customWidth="1"/>
+    <col min="26" max="26" width="19.75" customWidth="1"/>
+    <col min="27" max="27" width="20.125" customWidth="1"/>
+    <col min="28" max="32" width="18.5" customWidth="1"/>
+    <col min="33" max="33" width="15.125" customWidth="1"/>
+    <col min="34" max="34" width="18.25" customWidth="1"/>
+    <col min="35" max="35" width="15.625" customWidth="1"/>
+    <col min="36" max="36" width="19.75" customWidth="1"/>
+    <col min="37" max="37" width="15.125" customWidth="1"/>
+    <col min="38" max="38" width="18.25" customWidth="1"/>
+    <col min="39" max="39" width="15.625" customWidth="1"/>
+    <col min="40" max="40" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1485,88 +1634,121 @@
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="J1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1574,88 +1756,121 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
       </c>
       <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="M2" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="N2" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="O2" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="Q2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="R2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="S2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="T2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="U2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="V2" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="W2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="X2" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="Y2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="Z2" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="AA2" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="AB2" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="AC2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="45" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1663,330 +1878,469 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
+        <v>17</v>
+      </c>
+      <c r="O4" s="3">
+        <v>17</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="R4" s="3">
+        <v>10</v>
+      </c>
+      <c r="S4" s="3">
+        <v>10</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="U4" s="3">
+        <v>30</v>
+      </c>
+      <c r="V4" s="3">
+        <v>20</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="33" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="AD4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>50</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>80</v>
+      </c>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="3"/>
+    </row>
+    <row r="5" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
         <v>-1</v>
       </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="K5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
         <v>16</v>
       </c>
-      <c r="L4" s="3">
+      <c r="O5" s="3">
         <v>16</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-    </row>
-    <row r="5" spans="1:29" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>17</v>
-      </c>
-      <c r="L5" s="3">
-        <v>17</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="O5" s="3">
-        <v>10</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="R5" s="3">
-        <v>30</v>
-      </c>
-      <c r="S5" s="3">
-        <v>20</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="U5" s="3">
-        <v>1</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="W5" s="3">
-        <v>2</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+    </row>
+    <row r="6" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
-        <v>2</v>
-      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="3">
         <v>20</v>
       </c>
-      <c r="K6" s="3">
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
         <v>17</v>
       </c>
-      <c r="L6" s="3">
+      <c r="O6" s="3">
         <v>17</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="P6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="R6" s="3">
         <v>10</v>
       </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
+        <v>10</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="U6" s="3">
         <v>30</v>
       </c>
-      <c r="S6" s="3">
+      <c r="V6" s="3">
         <v>20</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="U6" s="3">
-        <v>1</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="W6" s="3">
-        <v>2</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y6" s="3">
+      <c r="W6" s="4"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="3"/>
+    </row>
+    <row r="7" spans="1:40" ht="33" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <v>17</v>
+      </c>
+      <c r="O7" s="3">
+        <v>17</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="R7" s="3">
+        <v>10</v>
+      </c>
+      <c r="S7" s="3">
         <v>3</v>
       </c>
-      <c r="Z6" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>20</v>
-      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
     <col min="7" max="7" width="13.625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
@@ -2009,36 +2363,36 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -2049,19 +2403,19 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -2069,16 +2423,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -2089,16 +2443,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="3">
         <v>10</v>
@@ -2109,16 +2463,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -2129,18 +2483,98 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="3">
         <v>10</v>
       </c>
     </row>
@@ -2169,44 +2603,44 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2214,13 +2648,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2228,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2242,13 +2676,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2256,13 +2690,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2270,13 +2704,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2284,13 +2718,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="3">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2298,13 +2732,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2312,13 +2746,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3">
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2326,13 +2760,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2340,13 +2774,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2354,13 +2788,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2368,13 +2802,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3">
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2382,13 +2816,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3">
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2396,13 +2830,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3">
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2410,13 +2844,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3">
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2424,13 +2858,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3">
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2438,13 +2872,13 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2452,13 +2886,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2466,13 +2900,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2480,13 +2914,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="3">
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2494,13 +2928,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3">
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2508,13 +2942,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="3">
         <v>6</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2522,13 +2956,13 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="3">
         <v>7</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2536,13 +2970,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3">
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2550,13 +2984,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3">
         <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2564,13 +2998,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="3">
         <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2578,13 +3012,13 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="3">
         <v>11</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2592,13 +3026,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="3">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2606,13 +3040,13 @@
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="3">
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2620,13 +3054,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="3">
         <v>14</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2634,13 +3068,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="3">
         <v>15</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2648,13 +3082,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="3">
         <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2662,13 +3096,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="3">
         <v>17</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2676,13 +3110,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="3">
         <v>18</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2690,13 +3124,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="3">
         <v>19</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2704,13 +3138,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="3">
         <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2718,13 +3152,13 @@
         <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="3">
         <v>21</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2732,13 +3166,13 @@
         <v>3</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2746,13 +3180,13 @@
         <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2760,13 +3194,13 @@
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="3">
         <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2774,13 +3208,13 @@
         <v>3</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="3">
         <v>4</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2788,13 +3222,13 @@
         <v>3</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="3">
         <v>5</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2802,13 +3236,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="3">
         <v>6</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2816,13 +3250,13 @@
         <v>3</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="3">
         <v>7</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2830,13 +3264,13 @@
         <v>3</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="3">
         <v>8</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2844,13 +3278,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="3">
         <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2858,13 +3292,13 @@
         <v>3</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="3">
         <v>10</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2872,13 +3306,13 @@
         <v>3</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="3">
         <v>11</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2886,13 +3320,13 @@
         <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="3">
         <v>12</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2900,13 +3334,13 @@
         <v>3</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="3">
         <v>13</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2914,13 +3348,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="3">
         <v>14</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2928,13 +3362,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="3">
         <v>15</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2942,13 +3376,13 @@
         <v>3</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="3">
         <v>16</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2956,13 +3390,13 @@
         <v>3</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="3">
         <v>17</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2970,13 +3404,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="3">
         <v>18</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2984,13 +3418,13 @@
         <v>3</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="3">
         <v>19</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -2998,13 +3432,13 @@
         <v>3</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" s="3">
         <v>20</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -3012,13 +3446,13 @@
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C61" s="3">
         <v>21</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -3026,13 +3460,13 @@
         <v>3</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -3040,13 +3474,13 @@
         <v>3</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" s="3">
         <v>2</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/draw.抽卡.xlsx
+++ b/Excel/镇魂街/draw.抽卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="218">
   <si>
     <t>sheet名</t>
   </si>
@@ -602,14 +602,6 @@
   </si>
   <si>
     <t>循环抽相位2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放Id，-1表示没有开启条件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -776,18 +768,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>condition_id:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FirstBox[4].times</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -877,14 +857,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>破碎守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>守护灵低抽</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -906,6 +878,22 @@
   </si>
   <si>
     <t>守护灵初级抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵-高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵-初级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_id:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1422,7 +1410,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1504,7 +1492,7 @@
         <v>126</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1583,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1597,36 +1585,36 @@
     <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
-    <col min="13" max="13" width="15.125" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="15.75" customWidth="1"/>
-    <col min="17" max="17" width="17.625" customWidth="1"/>
-    <col min="18" max="18" width="23.5" customWidth="1"/>
-    <col min="19" max="19" width="19.75" customWidth="1"/>
-    <col min="20" max="20" width="18.5" customWidth="1"/>
-    <col min="21" max="21" width="20.5" customWidth="1"/>
-    <col min="22" max="22" width="21" customWidth="1"/>
-    <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="24" max="24" width="18.625" customWidth="1"/>
-    <col min="25" max="25" width="18.125" customWidth="1"/>
-    <col min="26" max="26" width="19.75" customWidth="1"/>
-    <col min="27" max="27" width="20.125" customWidth="1"/>
-    <col min="28" max="32" width="18.5" customWidth="1"/>
-    <col min="33" max="33" width="15.125" customWidth="1"/>
-    <col min="34" max="34" width="18.25" customWidth="1"/>
-    <col min="35" max="35" width="15.625" customWidth="1"/>
-    <col min="36" max="36" width="19.75" customWidth="1"/>
-    <col min="37" max="37" width="15.125" customWidth="1"/>
-    <col min="38" max="38" width="18.25" customWidth="1"/>
-    <col min="39" max="39" width="15.625" customWidth="1"/>
-    <col min="40" max="40" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="15.75" customWidth="1"/>
+    <col min="16" max="16" width="17.625" customWidth="1"/>
+    <col min="17" max="17" width="23.5" customWidth="1"/>
+    <col min="18" max="18" width="19.75" customWidth="1"/>
+    <col min="19" max="19" width="18.5" customWidth="1"/>
+    <col min="20" max="20" width="20.5" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="23" max="23" width="18.625" customWidth="1"/>
+    <col min="24" max="24" width="18.125" customWidth="1"/>
+    <col min="25" max="25" width="19.75" customWidth="1"/>
+    <col min="26" max="26" width="20.125" customWidth="1"/>
+    <col min="27" max="31" width="18.5" customWidth="1"/>
+    <col min="32" max="32" width="15.125" customWidth="1"/>
+    <col min="33" max="33" width="18.25" customWidth="1"/>
+    <col min="34" max="34" width="15.625" customWidth="1"/>
+    <col min="35" max="35" width="19.75" customWidth="1"/>
+    <col min="36" max="36" width="15.125" customWidth="1"/>
+    <col min="37" max="37" width="18.25" customWidth="1"/>
+    <col min="38" max="38" width="15.625" customWidth="1"/>
+    <col min="39" max="39" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1634,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>10</v>
@@ -1655,100 +1643,97 @@
         <v>15</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>180</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AI1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="AK1" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="AM1" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1756,7 +1741,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -1777,100 +1762,97 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M2" t="s">
         <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>188</v>
-      </c>
-      <c r="L2" t="s">
-        <v>189</v>
-      </c>
-      <c r="M2" t="s">
-        <v>190</v>
       </c>
       <c r="N2" t="s">
         <v>64</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="P2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q2" t="s">
         <v>174</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" t="s">
+        <v>174</v>
+      </c>
+      <c r="U2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V2" t="s">
         <v>175</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>176</v>
       </c>
-      <c r="S2" t="s">
+      <c r="X2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y2" t="s">
         <v>176</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Z2" t="s">
         <v>175</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AA2" t="s">
         <v>176</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AB2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG2" t="s">
         <v>176</v>
       </c>
-      <c r="W2" t="s">
-        <v>177</v>
-      </c>
-      <c r="X2" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AH2" t="s">
         <v>175</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>178</v>
       </c>
       <c r="AI2" t="s">
         <v>177</v>
       </c>
       <c r="AJ2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AK2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AM2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" ht="45" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1878,7 +1860,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1899,105 +1881,102 @@
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -2016,99 +1995,96 @@
         <v>37</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3"/>
+      <c r="J4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <v>17</v>
+      </c>
       <c r="N4" s="3">
         <v>17</v>
       </c>
-      <c r="O4" s="3">
-        <v>17</v>
+      <c r="O4" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>10</v>
       </c>
       <c r="R4" s="3">
         <v>10</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="T4" s="3">
+        <v>30</v>
+      </c>
+      <c r="U4" s="3">
+        <v>20</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC4" s="3">
         <v>10</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="U4" s="3">
-        <v>30</v>
-      </c>
-      <c r="V4" s="3">
+      <c r="AD4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE4" s="3">
         <v>20</v>
       </c>
-      <c r="W4" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="X4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="AB4" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>10</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>20</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AH4" s="3">
+      <c r="AG4" s="3">
         <v>50</v>
       </c>
-      <c r="AI4" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>80</v>
-      </c>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="3"/>
-    </row>
-    <row r="5" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AH4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>80</v>
+      </c>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="3"/>
+    </row>
+    <row r="5" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
+      <c r="B5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>32</v>
@@ -2118,33 +2094,37 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="J5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="3">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <v>31</v>
+      </c>
+      <c r="N5" s="3">
+        <v>31</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q5" s="3">
         <v>10</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3">
-        <v>16</v>
-      </c>
-      <c r="O5" s="3">
-        <v>16</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="R5" s="3">
+        <v>3</v>
+      </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
@@ -2166,159 +2146,150 @@
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-    </row>
-    <row r="6" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:39" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>73</v>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K6" s="3">
+        <v>60</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <v>16</v>
+      </c>
+      <c r="N6" s="3">
+        <v>16</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+    </row>
+    <row r="9" spans="1:39" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3">
+      <c r="I9" s="3"/>
+      <c r="J9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="3">
+        <v>20</v>
+      </c>
+      <c r="L9" s="3">
         <v>2</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="M9" s="3">
+        <v>17</v>
+      </c>
+      <c r="N9" s="3">
+        <v>17</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>10</v>
+      </c>
+      <c r="R9" s="3">
+        <v>10</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="T9" s="3">
+        <v>30</v>
+      </c>
+      <c r="U9" s="3">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
-        <v>2</v>
-      </c>
-      <c r="N6" s="3">
-        <v>17</v>
-      </c>
-      <c r="O6" s="3">
-        <v>17</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="R6" s="3">
-        <v>10</v>
-      </c>
-      <c r="S6" s="3">
-        <v>10</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="U6" s="3">
-        <v>30</v>
-      </c>
-      <c r="V6" s="3">
-        <v>20</v>
-      </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="3"/>
-    </row>
-    <row r="7" spans="1:40" ht="33" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3">
-        <v>17</v>
-      </c>
-      <c r="O7" s="3">
-        <v>17</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="R7" s="3">
-        <v>10</v>
-      </c>
-      <c r="S7" s="3">
-        <v>3</v>
-      </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2329,10 +2300,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2418,81 +2389,81 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="F7" s="3">
         <v>10</v>
@@ -2505,14 +2476,14 @@
       <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>172</v>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -2526,55 +2497,55 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D9" s="3">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D11" s="3">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="3">
         <v>10</v>
       </c>
     </row>

--- a/Excel/镇魂街/draw.抽卡.xlsx
+++ b/Excel/镇魂街/draw.抽卡.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="220">
   <si>
     <t>sheet名</t>
   </si>
@@ -894,6 +894,15 @@
   </si>
   <si>
     <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 低级
+2 高级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1571,50 +1580,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
-    <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="15.75" customWidth="1"/>
-    <col min="16" max="16" width="17.625" customWidth="1"/>
-    <col min="17" max="17" width="23.5" customWidth="1"/>
-    <col min="18" max="18" width="19.75" customWidth="1"/>
-    <col min="19" max="19" width="18.5" customWidth="1"/>
-    <col min="20" max="20" width="20.5" customWidth="1"/>
-    <col min="21" max="21" width="21" customWidth="1"/>
-    <col min="22" max="22" width="17" customWidth="1"/>
-    <col min="23" max="23" width="18.625" customWidth="1"/>
-    <col min="24" max="24" width="18.125" customWidth="1"/>
-    <col min="25" max="25" width="19.75" customWidth="1"/>
-    <col min="26" max="26" width="20.125" customWidth="1"/>
-    <col min="27" max="31" width="18.5" customWidth="1"/>
-    <col min="32" max="32" width="15.125" customWidth="1"/>
-    <col min="33" max="33" width="18.25" customWidth="1"/>
-    <col min="34" max="34" width="15.625" customWidth="1"/>
-    <col min="35" max="35" width="19.75" customWidth="1"/>
-    <col min="36" max="36" width="15.125" customWidth="1"/>
-    <col min="37" max="37" width="18.25" customWidth="1"/>
-    <col min="38" max="38" width="15.625" customWidth="1"/>
-    <col min="39" max="39" width="19.75" customWidth="1"/>
+    <col min="2" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="16.25" customWidth="1"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="15.75" customWidth="1"/>
+    <col min="17" max="17" width="17.625" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
+    <col min="19" max="19" width="19.75" customWidth="1"/>
+    <col min="20" max="20" width="18.5" customWidth="1"/>
+    <col min="21" max="21" width="20.5" customWidth="1"/>
+    <col min="22" max="22" width="21" customWidth="1"/>
+    <col min="23" max="23" width="17" customWidth="1"/>
+    <col min="24" max="24" width="18.625" customWidth="1"/>
+    <col min="25" max="25" width="18.125" customWidth="1"/>
+    <col min="26" max="26" width="19.75" customWidth="1"/>
+    <col min="27" max="27" width="20.125" customWidth="1"/>
+    <col min="28" max="32" width="18.5" customWidth="1"/>
+    <col min="33" max="33" width="15.125" customWidth="1"/>
+    <col min="34" max="34" width="18.25" customWidth="1"/>
+    <col min="35" max="35" width="15.625" customWidth="1"/>
+    <col min="36" max="36" width="19.75" customWidth="1"/>
+    <col min="37" max="37" width="15.125" customWidth="1"/>
+    <col min="38" max="38" width="18.25" customWidth="1"/>
+    <col min="39" max="39" width="15.625" customWidth="1"/>
+    <col min="40" max="40" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1625,115 +1634,118 @@
         <v>205</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1744,115 +1756,118 @@
         <v>206</v>
       </c>
       <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>216</v>
-      </c>
-      <c r="K2" t="s">
-        <v>217</v>
       </c>
       <c r="L2" t="s">
         <v>217</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="N2" t="s">
         <v>64</v>
       </c>
       <c r="O2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" t="s">
         <v>172</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>173</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>174</v>
       </c>
       <c r="R2" t="s">
         <v>174</v>
       </c>
       <c r="S2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" t="s">
         <v>173</v>
-      </c>
-      <c r="T2" t="s">
-        <v>174</v>
       </c>
       <c r="U2" t="s">
         <v>174</v>
       </c>
       <c r="V2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W2" t="s">
         <v>175</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>176</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>175</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>176</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>175</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>176</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>173</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>174</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>173</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>174</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>175</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>176</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>175</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>177</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>173</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>174</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>173</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1863,115 +1878,118 @@
         <v>207</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1981,102 +1999,105 @@
       <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3">
-        <v>17</v>
-      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3"/>
       <c r="N4" s="3">
         <v>17</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3">
+        <v>17</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>10</v>
       </c>
       <c r="R4" s="3">
         <v>10</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="3">
+        <v>10</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="3">
         <v>30</v>
       </c>
-      <c r="U4" s="3">
+      <c r="V4" s="3">
         <v>20</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="W4" s="3">
-        <v>1</v>
-      </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="Y4" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AB4" s="3">
         <v>5</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AD4" s="3">
         <v>10</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AF4" s="3">
         <v>20</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AH4" s="3">
         <v>50</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="AI4" s="3">
-        <v>80</v>
-      </c>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="3"/>
-    </row>
-    <row r="5" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ4" s="3">
+        <v>80</v>
+      </c>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="3"/>
+    </row>
+    <row r="5" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2086,46 +2107,48 @@
       <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>20</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3">
-        <v>31</v>
-      </c>
+      <c r="M5" s="3"/>
       <c r="N5" s="3">
         <v>31</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3">
+        <v>31</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>10</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>3</v>
       </c>
-      <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -2146,8 +2169,9 @@
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
-    </row>
-    <row r="6" spans="1:39" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN5" s="3"/>
+    </row>
+    <row r="6" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2157,37 +2181,39 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="K6" s="3">
-        <v>60</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3">
-        <v>16</v>
-      </c>
+      <c r="L6" s="3">
+        <v>150</v>
+      </c>
+      <c r="M6" s="3"/>
       <c r="N6" s="3">
         <v>16</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3">
+        <v>16</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -2211,8 +2237,9 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
-    </row>
-    <row r="9" spans="1:39" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN6" s="3"/>
+    </row>
+    <row r="9" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2222,74 +2249,75 @@
       <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20</v>
       </c>
-      <c r="L9" s="3">
-        <v>2</v>
-      </c>
       <c r="M9" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N9" s="3">
         <v>17</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3">
+        <v>17</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>10</v>
       </c>
       <c r="R9" s="3">
         <v>10</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="3">
+        <v>10</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>30</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>20</v>
       </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="3"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/镇魂街/draw.抽卡.xlsx
+++ b/Excel/镇魂街/draw.抽卡.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -18,12 +13,12 @@
     <sheet name="掉落池配置" sheetId="33" r:id="rId4"/>
     <sheet name="聚合掉落" sheetId="32" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="268">
   <si>
     <t>sheet名</t>
   </si>
@@ -58,7 +53,7 @@
     <t>card_random_type.lua</t>
   </si>
   <si>
-    <t>ID,HelpCol,Loc</t>
+    <t>ID,HelpCol</t>
   </si>
   <si>
     <t>用于客户端展示本卡池能抽到哪些卡，以及各卡的概率</t>
@@ -232,6 +227,9 @@
     <t>IsUp</t>
   </si>
   <si>
+    <t>SortingParam</t>
+  </si>
+  <si>
     <t>#note</t>
   </si>
   <si>
@@ -292,6 +290,12 @@
     <t>OpenType</t>
   </si>
   <si>
+    <t>MaxTimes</t>
+  </si>
+  <si>
+    <t>DrawOutHide</t>
+  </si>
+  <si>
     <t>OpenParams[1]</t>
   </si>
   <si>
@@ -346,6 +350,9 @@
     <t>condition_id:e&lt;&gt;</t>
   </si>
   <si>
+    <t>bool:e&lt;&gt;|TRUE</t>
+  </si>
+  <si>
     <t>drop_id:e&gt;</t>
   </si>
   <si>
@@ -358,6 +365,10 @@
     <t>唯一键</t>
   </si>
   <si>
+    <t>排序参数
+按数字从小到大排列</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -383,6 +394,10 @@
   </si>
   <si>
     <t>抽卡消耗道具数量</t>
+  </si>
+  <si>
+    <t>Cost[1]不足时，以此代替
+货币ID。如果为空则表示道具不足不可抽取。</t>
   </si>
   <si>
     <t>代替一个道具需要的货币数量</t>
@@ -418,6 +433,12 @@
     <t>抽卡项开启条件</t>
   </si>
   <si>
+    <t>最大抽卡次数</t>
+  </si>
+  <si>
+    <t>抽卡结束后是否隐藏</t>
+  </si>
+  <si>
     <t>开启条件参数1</t>
   </si>
   <si>
@@ -492,6 +513,30 @@
     <t>守护灵高抽10次保底</t>
   </si>
   <si>
+    <t>寄灵人抽卡</t>
+  </si>
+  <si>
+    <t>高级寄灵人</t>
+  </si>
+  <si>
+    <t>&lt;size=48&gt;&lt;color=#cf55d3&gt;高级寄灵人&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#cf55d3&gt;感灵值满时，必得SSR寄灵人&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffa83b&gt;本次必得SSR寄灵人&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+  </si>
+  <si>
+    <t>ui_dtex_Tapicon_112</t>
+  </si>
+  <si>
+    <t>地狱道</t>
+  </si>
+  <si>
     <t>守护灵低级抽卡</t>
   </si>
   <si>
@@ -514,30 +559,6 @@
   </si>
   <si>
     <t>ui_dtex_Tapicon_111</t>
-  </si>
-  <si>
-    <t>寄灵人抽卡</t>
-  </si>
-  <si>
-    <t>高级寄灵人</t>
-  </si>
-  <si>
-    <t>&lt;size=48&gt;&lt;color=#cf55d3&gt;高级寄灵人&lt;/color&gt;&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#cf55d3&gt;感灵值满时，必得SSR寄灵人&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#ffa83b&gt;本次必得SSR寄灵人&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>寄灵人抽卡券</t>
-  </si>
-  <si>
-    <t>ui_dtex_Tapicon_112</t>
-  </si>
-  <si>
-    <t>地狱道</t>
   </si>
   <si>
     <t>守护灵新手抽卡</t>
@@ -814,58 +835,19 @@
   </si>
   <si>
     <t>新手20抽保底</t>
-  </si>
-  <si>
-    <t>Loc</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loc</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxTimes</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大抽卡次数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DrawOutHide</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽卡结束后是否隐藏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool:e&lt;&gt;|TRUE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost[1]不足时，以此代替
-货币ID。如果为空则表示道具不足不可抽取。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,7 +860,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -886,14 +867,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -901,21 +880,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -923,19 +915,132 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,7 +1055,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149754325998718"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,12 +1097,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14975432599871821"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1006,6 +1291,69 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1014,28 +1362,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
@@ -1044,80 +1571,124 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="56" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="8" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="56" applyFont="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="33">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="33" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="33" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="56">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="33" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+  <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="8"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="英文标题" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
+    <cellStyle name="因变Grid" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="Grid" xfId="33"/>
+    <cellStyle name="汇总" xfId="34" builtinId="25"/>
+    <cellStyle name="好" xfId="35" builtinId="26"/>
+    <cellStyle name="适中" xfId="36" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
+    <cellStyle name="纵向标题" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="大标题" xfId="48"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="Normal" xfId="55"/>
+    <cellStyle name="中文标题" xfId="56"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1375,19 +1946,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1399,50 +1970,50 @@
     <col min="9" max="9" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" ht="15" spans="1:9">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" ht="51" customHeight="1" spans="1:9">
+      <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="6" t="b">
@@ -1453,16 +2024,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17" t="s">
-        <v>261</v>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -1472,15 +2043,15 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+    <row r="4" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="6"/>
@@ -1491,15 +2062,15 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+    <row r="5" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="6"/>
@@ -1510,15 +2081,15 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+    <row r="6" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A6" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="6"/>
@@ -1529,25 +2100,26 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
@@ -1555,21 +2127,21 @@
     <col min="5" max="5" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" ht="15" spans="1:4">
+      <c r="A1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1583,21 +2155,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+    <row r="3" ht="15" spans="1:4">
+      <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="1:4">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1611,7 +2183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1625,7 +2197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1639,7 +2211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:4">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1653,7 +2225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:4">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1667,7 +2239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:4">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1681,7 +2253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:4">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -1695,7 +2267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:4">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -1709,7 +2281,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:4">
       <c r="A12" s="6">
         <v>1</v>
       </c>
@@ -1723,7 +2295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:4">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -1737,7 +2309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:4">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -1751,7 +2323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:4">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -1765,7 +2337,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:4">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -1779,7 +2351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:4">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -1793,7 +2365,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:4">
       <c r="A18" s="6">
         <v>1</v>
       </c>
@@ -1807,7 +2379,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:4">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -1821,7 +2393,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:4">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -1835,7 +2407,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:4">
       <c r="A21" s="6">
         <v>1</v>
       </c>
@@ -1849,7 +2421,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:4">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -1863,7 +2435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:4">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -1877,7 +2449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:4">
       <c r="A24" s="6">
         <v>1</v>
       </c>
@@ -1891,7 +2463,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:4">
       <c r="A25" s="6">
         <v>2</v>
       </c>
@@ -1905,7 +2477,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:4">
       <c r="A26" s="6">
         <v>2</v>
       </c>
@@ -1919,7 +2491,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="16.5" spans="1:4">
       <c r="A27" s="6">
         <v>2</v>
       </c>
@@ -1933,7 +2505,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:4">
       <c r="A28" s="6">
         <v>2</v>
       </c>
@@ -1947,7 +2519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" ht="16.5" spans="1:4">
       <c r="A29" s="6">
         <v>2</v>
       </c>
@@ -1961,7 +2533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="16.5" spans="1:4">
       <c r="A30" s="6">
         <v>2</v>
       </c>
@@ -1975,7 +2547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" ht="16.5" spans="1:4">
       <c r="A31" s="6">
         <v>2</v>
       </c>
@@ -1989,7 +2561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="16.5" spans="1:4">
       <c r="A32" s="6">
         <v>2</v>
       </c>
@@ -2003,7 +2575,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="16.5" spans="1:4">
       <c r="A33" s="6">
         <v>2</v>
       </c>
@@ -2017,7 +2589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" ht="16.5" spans="1:4">
       <c r="A34" s="6">
         <v>2</v>
       </c>
@@ -2031,7 +2603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" ht="16.5" spans="1:4">
       <c r="A35" s="6">
         <v>2</v>
       </c>
@@ -2045,7 +2617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" ht="16.5" spans="1:4">
       <c r="A36" s="6">
         <v>2</v>
       </c>
@@ -2059,7 +2631,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" ht="16.5" spans="1:4">
       <c r="A37" s="6">
         <v>2</v>
       </c>
@@ -2073,7 +2645,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" ht="16.5" spans="1:4">
       <c r="A38" s="6">
         <v>2</v>
       </c>
@@ -2087,7 +2659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" ht="16.5" spans="1:4">
       <c r="A39" s="6">
         <v>2</v>
       </c>
@@ -2101,7 +2673,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" ht="16.5" spans="1:4">
       <c r="A40" s="6">
         <v>2</v>
       </c>
@@ -2115,7 +2687,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" ht="16.5" spans="1:4">
       <c r="A41" s="6">
         <v>2</v>
       </c>
@@ -2129,7 +2701,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" ht="16.5" spans="1:4">
       <c r="A42" s="6">
         <v>2</v>
       </c>
@@ -2143,7 +2715,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" ht="16.5" spans="1:4">
       <c r="A43" s="6">
         <v>2</v>
       </c>
@@ -2157,7 +2729,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" ht="16.5" spans="1:4">
       <c r="A44" s="6">
         <v>2</v>
       </c>
@@ -2171,7 +2743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" ht="16.5" spans="1:4">
       <c r="A45" s="6">
         <v>2</v>
       </c>
@@ -2185,7 +2757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" ht="16.5" spans="1:4">
       <c r="A46" s="6">
         <v>3</v>
       </c>
@@ -2199,7 +2771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" ht="16.5" spans="1:4">
       <c r="A47" s="6">
         <v>3</v>
       </c>
@@ -2213,7 +2785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" ht="16.5" spans="1:4">
       <c r="A48" s="6">
         <v>3</v>
       </c>
@@ -2227,7 +2799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" ht="16.5" spans="1:4">
       <c r="A49" s="6">
         <v>3</v>
       </c>
@@ -2241,7 +2813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" ht="16.5" spans="1:4">
       <c r="A50" s="6">
         <v>3</v>
       </c>
@@ -2255,7 +2827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" ht="16.5" spans="1:4">
       <c r="A51" s="6">
         <v>3</v>
       </c>
@@ -2269,7 +2841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" ht="16.5" spans="1:4">
       <c r="A52" s="6">
         <v>3</v>
       </c>
@@ -2283,7 +2855,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" ht="16.5" spans="1:4">
       <c r="A53" s="6">
         <v>3</v>
       </c>
@@ -2297,7 +2869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" ht="16.5" spans="1:4">
       <c r="A54" s="6">
         <v>3</v>
       </c>
@@ -2311,7 +2883,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" ht="16.5" spans="1:4">
       <c r="A55" s="6">
         <v>3</v>
       </c>
@@ -2325,7 +2897,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" ht="16.5" spans="1:4">
       <c r="A56" s="6">
         <v>3</v>
       </c>
@@ -2339,7 +2911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" ht="16.5" spans="1:4">
       <c r="A57" s="6">
         <v>3</v>
       </c>
@@ -2353,7 +2925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" ht="16.5" spans="1:4">
       <c r="A58" s="6">
         <v>3</v>
       </c>
@@ -2367,7 +2939,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" ht="16.5" spans="1:4">
       <c r="A59" s="6">
         <v>3</v>
       </c>
@@ -2381,7 +2953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" ht="16.5" spans="1:4">
       <c r="A60" s="6">
         <v>3</v>
       </c>
@@ -2395,7 +2967,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" ht="16.5" spans="1:4">
       <c r="A61" s="6">
         <v>3</v>
       </c>
@@ -2409,7 +2981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" ht="16.5" spans="1:4">
       <c r="A62" s="6">
         <v>3</v>
       </c>
@@ -2423,7 +2995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" ht="16.5" spans="1:4">
       <c r="A63" s="6">
         <v>3</v>
       </c>
@@ -2437,7 +3009,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" ht="16.5" spans="1:4">
       <c r="A64" s="6">
         <v>3</v>
       </c>
@@ -2451,7 +3023,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" ht="16.5" spans="1:4">
       <c r="A65" s="6">
         <v>3</v>
       </c>
@@ -2465,7 +3037,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" ht="16.5" spans="1:4">
       <c r="A66" s="6">
         <v>3</v>
       </c>
@@ -2479,7 +3051,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" ht="16.5" spans="1:4">
       <c r="A67" s="6">
         <v>4</v>
       </c>
@@ -2493,7 +3065,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" ht="16.5" spans="1:4">
       <c r="A68" s="6">
         <v>4</v>
       </c>
@@ -2507,7 +3079,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" ht="16.5" spans="1:4">
       <c r="A69" s="6">
         <v>4</v>
       </c>
@@ -2521,7 +3093,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" ht="16.5" spans="1:4">
       <c r="A70" s="6">
         <v>4</v>
       </c>
@@ -2535,7 +3107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" ht="16.5" spans="1:4">
       <c r="A71" s="6">
         <v>4</v>
       </c>
@@ -2549,7 +3121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" ht="16.5" spans="1:4">
       <c r="A72" s="6">
         <v>4</v>
       </c>
@@ -2563,7 +3135,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" ht="16.5" spans="1:4">
       <c r="A73" s="6">
         <v>4</v>
       </c>
@@ -2577,7 +3149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" ht="16.5" spans="1:4">
       <c r="A74" s="6">
         <v>4</v>
       </c>
@@ -2591,7 +3163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" ht="16.5" spans="1:4">
       <c r="A75" s="6">
         <v>4</v>
       </c>
@@ -2605,7 +3177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" ht="16.5" spans="1:4">
       <c r="A76" s="6">
         <v>4</v>
       </c>
@@ -2619,7 +3191,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" ht="16.5" spans="1:4">
       <c r="A77" s="6">
         <v>4</v>
       </c>
@@ -2633,7 +3205,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" ht="16.5" spans="1:4">
       <c r="A78" s="6">
         <v>4</v>
       </c>
@@ -2647,7 +3219,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" ht="16.5" spans="1:4">
       <c r="A79" s="6">
         <v>4</v>
       </c>
@@ -2661,7 +3233,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" ht="16.5" spans="1:4">
       <c r="A80" s="6">
         <v>4</v>
       </c>
@@ -2675,7 +3247,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" ht="16.5" spans="1:4">
       <c r="A81" s="6">
         <v>4</v>
       </c>
@@ -2689,7 +3261,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" ht="16.5" spans="1:4">
       <c r="A82" s="6">
         <v>4</v>
       </c>
@@ -2703,7 +3275,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" ht="16.5" spans="1:4">
       <c r="A83" s="6">
         <v>2</v>
       </c>
@@ -2713,11 +3285,11 @@
       <c r="C83" s="6">
         <v>1</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" ht="16.5" spans="1:4">
       <c r="A84" s="6">
         <v>2</v>
       </c>
@@ -2727,29 +3299,30 @@
       <c r="C84" s="6">
         <v>2</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="18" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="22.75" style="3" customWidth="1"/>
@@ -2781,122 +3354,122 @@
     <col min="36" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" ht="18" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>79</v>
       </c>
+      <c r="M1" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI1" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="16.5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:35">
       <c r="A2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>262</v>
+        <v>103</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>25</v>
@@ -2911,37 +3484,37 @@
         <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>25</v>
@@ -2950,22 +3523,22 @@
         <v>25</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>266</v>
+        <v>103</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>268</v>
+        <v>110</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>24</v>
@@ -2974,224 +3547,224 @@
         <v>24</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" ht="90" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" ht="90" spans="1:35">
       <c r="A3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>269</v>
+        <v>114</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>264</v>
+        <v>136</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH3" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>201</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="14">
+      <c r="AH3" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI3" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" ht="63.95" customHeight="1" spans="1:35">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
         <v>1000</v>
       </c>
-      <c r="J4" s="17" t="s">
-        <v>145</v>
+      <c r="C4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="K4" s="6">
         <v>1</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="M4" s="11">
+      <c r="L4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="12">
         <v>300</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="12">
         <v>2</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="12">
         <v>2</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="W4" s="11">
+      <c r="P4" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="W4" s="12">
         <v>-1</v>
       </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11">
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12">
         <v>16</v>
       </c>
-      <c r="AB4" s="11">
+      <c r="AB4" s="12">
         <v>16</v>
       </c>
-      <c r="AC4" s="11">
-        <v>30</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE4" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG4" s="11">
+      <c r="AC4" s="12">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG4" s="12">
         <v>10</v>
       </c>
       <c r="AH4" s="6">
@@ -3201,90 +3774,90 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>101</v>
-      </c>
-      <c r="B5" s="11">
+    <row r="5" ht="63.95" customHeight="1" spans="1:35">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="12">
+        <v>4000</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="H5" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="15">
         <v>1000</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="18" t="s">
         <v>167</v>
       </c>
       <c r="K5" s="6">
         <v>1</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="M5" s="11">
+      <c r="L5" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" s="12">
         <v>300</v>
       </c>
-      <c r="N5" s="11">
-        <v>1</v>
-      </c>
-      <c r="O5" s="11">
+      <c r="N5" s="12">
+        <v>1</v>
+      </c>
+      <c r="O5" s="12">
         <v>2</v>
       </c>
-      <c r="P5" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="T5" s="11" t="s">
+      <c r="P5" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="T5" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11" t="s">
+      <c r="U5" s="12"/>
+      <c r="V5" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="12">
         <v>-1</v>
       </c>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11">
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12">
         <v>2</v>
       </c>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11">
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12">
         <v>18</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AB5" s="12">
         <v>18</v>
       </c>
-      <c r="AC5" s="11">
-        <v>30</v>
-      </c>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
+      <c r="AC5" s="12">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
       <c r="AH5" s="6">
         <v>301</v>
       </c>
@@ -3292,90 +3865,90 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>202</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="13" t="s">
+    <row r="6" ht="63.95" customHeight="1" spans="1:35">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="15">
+        <v>100</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="M6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="N6" s="12">
+        <v>2</v>
+      </c>
+      <c r="O6" s="12">
+        <v>1</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="Q6" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="R6" s="12"/>
+      <c r="S6" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="T6" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="I6" s="14">
-        <v>100</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="M6" s="11">
-        <v>50000</v>
-      </c>
-      <c r="N6" s="11">
-        <v>2</v>
-      </c>
-      <c r="O6" s="11">
-        <v>1</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="W6" s="11">
+      <c r="W6" s="12">
         <v>-1</v>
       </c>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11">
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12">
         <v>17</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AB6" s="12">
         <v>17</v>
       </c>
-      <c r="AC6" s="11">
-        <v>30</v>
-      </c>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
+      <c r="AC6" s="12">
+        <v>30</v>
+      </c>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
       <c r="AH6" s="6">
         <v>201</v>
       </c>
@@ -3383,90 +3956,90 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>200</v>
-      </c>
-      <c r="B7" s="11">
+    <row r="7" ht="63.95" customHeight="1" spans="1:35">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11">
+      <c r="O7" s="12">
         <v>2</v>
       </c>
-      <c r="O7" s="11">
-        <v>1</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="W7" s="11">
+      <c r="P7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="W7" s="12">
         <v>20</v>
       </c>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11">
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12">
         <v>19</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AB7" s="12">
         <v>19</v>
       </c>
-      <c r="AC7" s="11">
+      <c r="AC7" s="12">
         <v>20</v>
       </c>
-      <c r="AD7" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE7" s="11">
+      <c r="AD7" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE7" s="12">
         <v>10</v>
       </c>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
       <c r="AH7" s="6">
         <v>401</v>
       </c>
@@ -3474,34 +4047,35 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="33:33">
       <c r="AG9"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="33:33">
       <c r="AG10"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="33:33">
       <c r="AG11"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="33:33">
       <c r="AG12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
@@ -3510,91 +4084,91 @@
     <col min="9" max="9" width="21.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" ht="18" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" ht="35.25" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="6">
         <f>C4*10+D4</f>
         <v>1011</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C4" s="6">
         <v>101</v>
@@ -3606,20 +4180,20 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A19" si="0">C5*10+D5</f>
         <v>1012</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C5" s="6">
         <v>101</v>
@@ -3631,20 +4205,20 @@
         <v>101</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>1013</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C6" s="6">
         <v>101</v>
@@ -3656,20 +4230,20 @@
         <v>201</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C7" s="6">
         <v>101</v>
@@ -3681,20 +4255,20 @@
         <v>301</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:8">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>1015</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C8" s="6">
         <v>101</v>
@@ -3706,20 +4280,20 @@
         <v>401</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:8">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>1021</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C9" s="6">
         <v>102</v>
@@ -3731,22 +4305,22 @@
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:8">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>1022</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C10" s="6">
         <v>102</v>
@@ -3758,22 +4332,22 @@
         <v>101</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:8">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>1023</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C11" s="6">
         <v>102</v>
@@ -3785,22 +4359,22 @@
         <v>201</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:8">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C12" s="6">
         <v>102</v>
@@ -3812,22 +4386,22 @@
         <v>301</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>1025</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C13" s="6">
         <v>102</v>
@@ -3839,22 +4413,22 @@
         <v>401</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C14" s="6">
         <v>201</v>
@@ -3866,20 +4440,20 @@
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C15" s="6">
         <v>202</v>
@@ -3891,22 +4465,22 @@
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:8">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>3011</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C16" s="6">
         <v>301</v>
@@ -3918,20 +4492,20 @@
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>3021</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C17" s="6">
         <v>302</v>
@@ -3943,22 +4517,22 @@
         <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>4011</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C18" s="6">
         <v>401</v>
@@ -3970,20 +4544,20 @@
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>4021</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C19" s="6">
         <v>402</v>
@@ -3995,28 +4569,29 @@
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H19" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="26.875" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
@@ -4029,147 +4604,147 @@
     <col min="12" max="12" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" ht="18" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:12">
       <c r="A4" s="6">
         <v>101</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D4" s="6">
         <v>9000</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F4" s="6">
         <v>900</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="H4" s="6">
         <v>70</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="J4" s="6">
         <v>30</v>
@@ -4177,33 +4752,33 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:12">
       <c r="A5" s="6">
         <v>102</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D5" s="6">
         <v>9000</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F5" s="6">
         <v>900</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="H5" s="6">
         <v>70</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="J5" s="6">
         <v>30</v>
@@ -4211,33 +4786,33 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:12">
       <c r="A6" s="6">
         <v>103</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D6" s="6">
         <v>9000</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F6" s="6">
         <v>900</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H6" s="6">
         <v>95</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="J6" s="6">
         <v>5</v>
@@ -4245,71 +4820,71 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:12">
       <c r="A7" s="6">
         <v>104</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D7" s="6">
         <v>9000</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F7" s="6">
         <v>900</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H7" s="6">
         <v>85</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="J7" s="6">
         <v>10</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L7" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:12">
       <c r="A8" s="6">
         <v>105</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D8" s="6">
         <v>9000</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F8" s="6">
         <v>900</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H8" s="6">
         <v>85</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J8" s="6">
         <v>15</v>
@@ -4317,21 +4892,21 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:12">
       <c r="A9" s="6">
         <v>106</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D9" s="6">
         <v>9750</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F9" s="6">
         <v>250</v>
@@ -4343,21 +4918,21 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:12">
       <c r="A10" s="6">
         <v>107</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D10" s="6">
         <v>9750</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F10" s="6">
         <v>250</v>
@@ -4369,21 +4944,21 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:12">
       <c r="A11" s="6">
         <v>108</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D11" s="6">
         <v>9750</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F11" s="6">
         <v>250</v>
@@ -4395,21 +4970,21 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:12">
       <c r="A12" s="6">
         <v>109</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D12" s="6">
         <v>9750</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F12" s="6">
         <v>250</v>
@@ -4421,21 +4996,21 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:12">
       <c r="A13" s="6">
         <v>110</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D13" s="6">
         <v>9750</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F13" s="6">
         <v>250</v>
@@ -4447,27 +5022,27 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:12">
       <c r="A14" s="6">
         <v>111</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D14" s="6">
         <v>9000</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F14" s="6">
         <v>700</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="H14" s="6">
         <v>300</v>
@@ -4477,27 +5052,27 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:12">
       <c r="A15" s="6">
         <v>112</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D15" s="6">
         <v>9000</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F15" s="6">
         <v>700</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H15" s="6">
         <v>300</v>
@@ -4507,27 +5082,27 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:12">
       <c r="A16" s="6">
         <v>113</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D16" s="6">
         <v>9000</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F16" s="6">
         <v>950</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H16" s="6">
         <v>50</v>
@@ -4537,33 +5112,33 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:12">
       <c r="A17" s="6">
         <v>114</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D17" s="6">
         <v>9000</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F17" s="6">
         <v>850</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H17" s="6">
         <v>100</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J17" s="6">
         <v>50</v>
@@ -4571,27 +5146,27 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:12">
       <c r="A18" s="6">
         <v>115</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D18" s="6">
         <v>9000</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F18" s="6">
         <v>850</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="H18" s="6">
         <v>150</v>
@@ -4601,15 +5176,15 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:12">
       <c r="A19" s="6">
         <v>116</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D19" s="6">
         <v>10000</v>
@@ -4623,15 +5198,15 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:12">
       <c r="A20" s="6">
         <v>117</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D20" s="6">
         <v>10000</v>
@@ -4645,15 +5220,15 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:12">
       <c r="A21" s="6">
         <v>118</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D21" s="6">
         <v>10000</v>
@@ -4667,21 +5242,21 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:12">
       <c r="A22" s="6">
         <v>119</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D22" s="6">
         <v>8500</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F22" s="6">
         <v>1500</v>
@@ -4693,21 +5268,21 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:12">
       <c r="A23" s="6">
         <v>120</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D23" s="6">
         <v>8500</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F23" s="6">
         <v>1500</v>
@@ -4719,27 +5294,27 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:12">
       <c r="A24" s="6">
         <v>121</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D24" s="6">
         <v>5000</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F24" s="6">
         <v>4500</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H24" s="6">
         <v>500</v>
@@ -4749,21 +5324,21 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:12">
       <c r="A25" s="6">
         <v>122</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D25" s="6">
         <v>5000</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F25" s="6">
         <v>5000</v>
@@ -4775,21 +5350,21 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:12">
       <c r="A26" s="6">
         <v>123</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D26" s="6">
         <v>7500</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F26" s="6">
         <v>2500</v>
@@ -4801,15 +5376,15 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="16.5" spans="1:12">
       <c r="A27" s="6">
         <v>124</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D27" s="6">
         <v>10000</v>
@@ -4823,27 +5398,27 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:12">
       <c r="A28" s="6">
         <v>125</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D28" s="6">
         <v>9000</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F28" s="6">
         <v>900</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="H28" s="6">
         <v>100</v>
@@ -4853,15 +5428,15 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" ht="16.5" spans="1:12">
       <c r="A29" s="6">
         <v>126</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D29" s="6">
         <v>10000</v>
@@ -4875,21 +5450,21 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="16.5" spans="1:12">
       <c r="A30" s="6">
         <v>127</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D30" s="6">
         <v>9500</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F30" s="6">
         <v>500</v>
@@ -4901,15 +5476,15 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" ht="16.5" spans="1:12">
       <c r="A31" s="6">
         <v>128</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D31" s="6">
         <v>10000</v>
@@ -4923,15 +5498,15 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="16.5" spans="1:12">
       <c r="A32" s="6">
         <v>129</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D32" s="6">
         <v>10000</v>
@@ -4945,15 +5520,15 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="16.5" spans="1:12">
       <c r="A33" s="6">
         <v>130</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D33" s="6">
         <v>10000</v>
@@ -4968,7 +5543,7 @@
       <c r="L33" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>